--- a/Assets/Resources/Model/NPC/TownNPC/DialogueSheet.xlsx
+++ b/Assets/Resources/Model/NPC/TownNPC/DialogueSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\Resources\Model\NPC\TownNPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD70B0-99F1-4614-B0AB-1A167DF2292E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC691E-2D46-44E4-AC85-CF20364E5802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,9 @@
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Assets/Resources/Model/NPC/TownNPC/DialogueSheet.xlsx
+++ b/Assets/Resources/Model/NPC/TownNPC/DialogueSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\Resources\Model\NPC\TownNPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC691E-2D46-44E4-AC85-CF20364E5802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12D48CF-99DE-4417-8913-0D644D8D3A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
+    <workbookView xWindow="2070" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,114 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너 같은 애가 왜 이런 산속에 있는거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억이 없어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈을 떠보니 여기예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 기억이 없다고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈을 뜨니 여기라고?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이럴 수가....</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>... 골치 아픈걸.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 나혼자밖에 없는데다가 밖에는 몬스터들이…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치료부터 하고 이야기 하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션을 좀 줄테니까 사용해봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 갑작스럽지만 부탁하나 해도 될까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까도 말했지만, 요 앞에 몬스터들이 좀 득실 거리거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 가진게 이 물약들 밖에 없어서 말이지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네가 대신 처리 좀 해줬으면 하는데 어때?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 다행이구만! 덕분에 한시름 놓겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 그렇구나. 어쩔 수 없지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시라도 마음이 바뀌면 다시 이야기 해줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 몬스터를 잡아서, 녀석들이 가지고 있는 목걸이를 가져다줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걱정마. 보상은 확실히 해줄테니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 가져왔구나! 은근히 좀 걸린거 같지만 뭐 상관없겠지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자 여기. 추가적으로 줄테니까 가져가.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 이야기로….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기서 조금더 나가가면 엄청 덩치큰 녀석이 있을거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기에 사람이 없어진 이유도 그녀석 때문이거든.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮다면…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니야. 너 같은 어린 아이에겐 좀 무리한 부탁이지 신경쓰지마.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부디 너가 기억을 되찾았으면 좋겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -206,26 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난 여기서 기다리고 있을게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혹시 뭐 필요한거 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘들것 같은데요...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠르게 처리하고 올게요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -241,6 +117,190 @@
   </si>
   <si>
     <t>Exit</t>
+  </si>
+  <si>
+    <t>도대체 뭐가 어떻게 된거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 방금 저쪽에서 갑자기 나타났다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 알고 싶네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종종 생기는 일이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.......</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨 말이야? 기억이 없다는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소릴하는거야?! 사람이라면 그런 일은 종종 생기지 않는다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 저기, 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일인지 정확히 모르겠지만 일단, 당장에 눈에 보이는 것부터 해결하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷을 줄테니까 이것부터 일단 이걸 챙겨입도록 해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람들은 눈은 속여도 내 눈은 못 속이지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 말인데, 밖에 있는 몬스터들을 좀 처리해주지 않을래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대로 내가 못해서 그러는 것은 아니고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 역시 절대로 나에게서 공짜로 받은 것에 대해서 호의를 배풀거나 그럴 필요는 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대로 부담가지지 말라니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거절하게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘써볼게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…. 너 좀 염치없-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니아니, 그럴 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실이 너 같은 아이가 상대하기엔 무리가 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어. 굳이 신경 쓸 필요없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펴-언히 쉬고 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 본걸로 봤을때, 너는 보통 내기가 아닌거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 뭐 더 필요한거 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에 다행이-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 내 말은 내가 할 수 있다는 데, 굳이 너가 할 필요 없다니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 너가 뱉은 말은 책임져야겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 마을을 빠져나가서 왼쪽으로 돌면 슬라임이랑 스컬매지션을 만날 수 있을거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬 매지션은 까다로우니까, 슬라임만 몇마리 잡아서 돌아와줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 돌아와도 너가 잡았다는 것을 확인할 길이 없으니까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임이 가지고 있는 오래된 동전을 5개정도 가져다 줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 기다리고 있을게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정마, 보상은 확실히 해줄게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져와 줬구나! 정말 고마워.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 있잖아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 가고 난 이후로 쭉 생각을 해봤는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 뭔가 조금 잘못된거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그도 그럴게 여긴 마을이잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 사람이라고는 한명도 보질 못한거 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 더 생각을 해보니까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 언제부터 여기있었는지를 잘 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 마을은 언제부터 생긴거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 왜 마을을 빠져나갈 생각을 못하는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 정확히 누구지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는- "Somethinkg Wrong in Talk Func in Gilbert Script."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오? 언제부터 거기 있었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54781867-1FA7-4C5B-AC3C-22B0018CE468}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -648,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,14 +722,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <f>A6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,14 +736,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <f>A7</f>
-        <v>5</v>
+        <f>A8</f>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,14 +751,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <f>A8</f>
-        <v>6</v>
+        <f>A9</f>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,14 +766,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <f>A8</f>
-        <v>6</v>
+        <f>A10</f>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,13 +795,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,13 +809,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,11 +851,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <f>A14</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -807,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -835,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,14 +907,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <f>A22</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,14 +921,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <f>A20</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,14 +935,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <f>A22</f>
-        <v>20</v>
+        <f>A21</f>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,13 +950,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f>A22</f>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,14 +965,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <f>A13</f>
-        <v>11</v>
+        <f>A27</f>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,13 +980,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -951,14 +1008,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
-      </c>
-      <c r="C24">
-        <f>A26</f>
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,14 +1022,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <f>A24</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,13 +1036,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f>A13</f>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,13 +1051,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,13 +1065,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,13 +1079,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,13 +1093,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,13 +1107,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,13 +1121,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,13 +1135,225 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <f>A36</f>
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <f>A34</f>
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1094,18 +1362,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92B7F7DB-169A-483B-809C-96394DD3F7F9}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B34</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD61DBD6-C33C-4179-9938-23AA7C24BA0F}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:B48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1133,47 +1395,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
